--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_16-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_16-22.xlsx
@@ -104,6 +104,9 @@
     <t>EUTHYROX 50MCG 50 TAB</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -147,6 +150,12 @@
   </si>
   <si>
     <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>3:3</t>
   </si>
   <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
@@ -1217,17 +1226,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1243,17 +1252,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1269,13 +1278,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1295,17 +1304,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1321,13 +1330,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1347,13 +1356,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1373,17 +1382,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1399,17 +1408,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1425,17 +1434,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1443,7 +1452,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1451,17 +1460,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1477,17 +1486,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1503,17 +1512,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1529,13 +1538,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1555,13 +1564,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1581,13 +1590,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1607,17 +1616,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1625,7 +1634,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1633,17 +1642,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1651,7 +1660,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1659,17 +1668,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1685,17 +1694,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1717,11 +1726,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>20.399999999999999</v>
+        <v>29</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1737,17 +1746,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1769,11 +1778,11 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>35</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1789,17 +1798,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>149.5</v>
+        <v>23</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1815,17 +1824,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1833,7 +1842,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1847,7 +1856,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>19</v>
+        <v>149.5</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1859,7 +1868,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1867,17 +1876,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1885,7 +1894,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1899,7 +1908,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1911,7 +1920,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1919,17 +1928,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1937,7 +1946,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1951,7 +1960,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1963,7 +1972,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1971,17 +1980,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>66.640000000000001</v>
+        <v>26</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1989,7 +1998,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1997,13 +2006,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2023,17 +2032,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>-375</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2049,17 +2058,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2067,7 +2076,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2075,13 +2084,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>40</v>
+        <v>-375</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2093,7 +2102,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2101,17 +2110,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2127,13 +2136,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>188.09999999999999</v>
+        <v>40</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2153,13 +2162,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2171,7 +2180,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2179,13 +2188,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>15</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2205,13 +2214,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2231,13 +2240,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2249,7 +2258,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2257,13 +2266,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2283,13 +2292,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2309,13 +2318,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2327,7 +2336,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2335,51 +2344,103 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="62" ht="26.25" customHeight="1">
-      <c r="K62" s="10">
-        <v>2651.6799999999998</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="11">
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="6">
+        <v>59</v>
+      </c>
+      <c t="s" r="B62" s="7">
         <v>84</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c t="s" r="F63" s="12">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c t="s" r="H62" s="8">
+        <v>53</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9">
+        <v>25</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c t="s" r="N62" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" ht="25.5" customHeight="1">
+      <c r="A63" s="6">
+        <v>60</v>
+      </c>
+      <c t="s" r="B63" s="7">
         <v>85</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-      <c t="s" r="I63" s="14">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c t="s" r="H63" s="8">
         <v>86</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9">
+        <v>45</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c t="s" r="N63" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="K64" s="10">
+        <v>2711.6799999999998</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="11">
+        <v>87</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c t="s" r="F65" s="12">
+        <v>88</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="13"/>
+      <c t="s" r="I65" s="14">
+        <v>89</v>
+      </c>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="191">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2561,10 +2622,16 @@
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="I65:N65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
